--- a/source/_drafts/Ribbon/ribbon-代码统计.xlsx
+++ b/source/_drafts/Ribbon/ribbon-代码统计.xlsx
@@ -219,12 +219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,7 +537,7 @@
   <dimension ref="A2:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E3:E63"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +658,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>7491</v>
       </c>
     </row>
